--- a/data/General Table for Screening/Past_cotestnegative_cotest.xlsx
+++ b/data/General Table for Screening/Past_cotestnegative_cotest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egemend2/Documents/Documents/Enduring Guidelines/Web Tool/new tables for the tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/druss/Downloads/new tables for the tool/General Table for Screening/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F849F1F-0406-6842-A790-8463E657858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA59677-D3AC-FF4D-B086-D35A606628A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33080" yWindow="-5520" windowWidth="28800" windowHeight="15620" xr2:uid="{1AC904FE-15A2-F44F-ADC1-49B15ABE3154}"/>
+    <workbookView xWindow="100" yWindow="920" windowWidth="30240" windowHeight="17640" xr2:uid="{1AC904FE-15A2-F44F-ADC1-49B15ABE3154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
   <si>
     <t>PAST HISTORY (most recent)</t>
   </si>
@@ -68,75 +68,21 @@
     <t>CIN2+ Immediate risk (%)</t>
   </si>
   <si>
-    <t>SE immediate</t>
-  </si>
-  <si>
-    <t>LL95 immediate</t>
-  </si>
-  <si>
-    <t>UL95 immediate</t>
-  </si>
-  <si>
     <t>CIN2+ 1 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 1-year</t>
-  </si>
-  <si>
-    <t>LL95 1-year</t>
-  </si>
-  <si>
-    <t>UL95 1-year</t>
-  </si>
-  <si>
     <t>CIN2+ 2 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 2-year</t>
-  </si>
-  <si>
-    <t>LL95 2-year</t>
-  </si>
-  <si>
-    <t>UL95 2-year</t>
-  </si>
-  <si>
     <t>CIN2+ 3 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 3-year</t>
-  </si>
-  <si>
-    <t>LL95 3-year</t>
-  </si>
-  <si>
-    <t>UL95 3-year</t>
-  </si>
-  <si>
     <t>CIN2+ 4 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 4-year</t>
-  </si>
-  <si>
-    <t>LL95 4-year</t>
-  </si>
-  <si>
-    <t>UL95 4-year</t>
-  </si>
-  <si>
     <t>CIN2+ 5 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 5-year</t>
-  </si>
-  <si>
-    <t>LL95 5-year</t>
-  </si>
-  <si>
-    <t>UL95 5-year</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -254,12 +200,6 @@
     <t>Unweighted Number of CIN2+ Cases</t>
   </si>
   <si>
-    <t>UnweightedNumber of CIN3+ Cases</t>
-  </si>
-  <si>
-    <t>UnweightedNumber of Cancer Cases</t>
-  </si>
-  <si>
     <t>1-year follow-up</t>
   </si>
   <si>
@@ -273,6 +213,204 @@
   </si>
   <si>
     <t>Special Situation</t>
+  </si>
+  <si>
+    <t>CIN2+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER SE immediate</t>
+  </si>
+  <si>
+    <t>CANCER LL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER UL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER SE 1-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 2-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 3-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 4-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 5-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 5-year</t>
+  </si>
+  <si>
+    <t>Unweighted %</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Number of CIN3+ Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Number of Cancer Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Unknown Cases</t>
   </si>
 </sst>
 </file>
@@ -768,10 +906,10 @@
   <dimension ref="A1:DD14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="DA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="DD10" sqref="DD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>5</v>
@@ -828,318 +966,318 @@
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AS1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="BI1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="BU1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CB1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV1" s="5" t="s">
+      <c r="CC1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="CN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH1" s="4" t="s">
+      <c r="CO1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL1" s="5" t="s">
+      <c r="CP1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="BM1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="CC1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CR1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CS1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="CG1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="CO1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP1" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="CT1" s="9" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="CU1" s="9" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="CV1" s="9" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="CW1" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="CX1" s="9" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="CY1" s="9" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="CZ1" s="9" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="DA1" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="DB1" s="9" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="DC1" s="9" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="DD1" s="9" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E2" s="12">
         <v>752735</v>
@@ -1403,7 +1541,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="CN2" s="14" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="CO2" s="15">
         <v>1</v>
@@ -1415,16 +1553,16 @@
     </row>
     <row r="3" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E3" s="12">
         <v>12293</v>
@@ -1688,7 +1826,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="CN3" s="19" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="CO3" s="15">
         <v>0.98762495796166561</v>
@@ -1700,16 +1838,16 @@
     </row>
     <row r="4" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E4" s="12">
         <v>1208</v>
@@ -1973,7 +2111,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="CN4" s="19" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="CO4" s="15">
         <v>0.664931556589196</v>
@@ -1985,16 +2123,16 @@
     </row>
     <row r="5" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E5" s="12">
         <v>484</v>
@@ -2258,25 +2396,25 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="CN5" s="20" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="CO5" s="15" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="CP5" s="11"/>
     </row>
     <row r="6" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E6" s="12">
         <v>1418</v>
@@ -2540,25 +2678,25 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="CN6" s="20" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="CO6" s="15" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="CP6" s="11"/>
     </row>
     <row r="7" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E7" s="12">
         <v>44</v>
@@ -2822,7 +2960,7 @@
         <v>7.3390000000000004</v>
       </c>
       <c r="CN7" s="20" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="CO7" s="15">
         <v>0.93954447764313909</v>
@@ -2834,16 +2972,16 @@
     </row>
     <row r="8" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12">
         <v>16042</v>
@@ -3107,7 +3245,7 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="CN8" s="18" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CO8" s="15">
         <v>1</v>
@@ -3119,16 +3257,16 @@
     </row>
     <row r="9" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12">
         <v>7394</v>
@@ -3392,7 +3530,7 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="CN9" s="18" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CO9" s="15">
         <v>1</v>
@@ -3404,16 +3542,16 @@
     </row>
     <row r="10" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E10" s="12">
         <v>5663</v>
@@ -3677,7 +3815,7 @@
         <v>0.222</v>
       </c>
       <c r="CN10" s="18" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CO10" s="15">
         <v>1</v>
@@ -3689,16 +3827,16 @@
     </row>
     <row r="11" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E11" s="12">
         <v>591</v>
@@ -3962,7 +4100,7 @@
         <v>1.38</v>
       </c>
       <c r="CN11" s="20" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="CO11" s="15">
         <v>0.99999998847282356</v>
@@ -3974,16 +4112,16 @@
     </row>
     <row r="12" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E12" s="12">
         <v>169</v>
@@ -4247,7 +4385,7 @@
         <v>7.4980000000000002</v>
       </c>
       <c r="CN12" s="20" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="CO12" s="15">
         <v>0.99943771594606123</v>
@@ -4259,16 +4397,16 @@
     </row>
     <row r="13" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E13" s="12">
         <v>372</v>
@@ -4532,7 +4670,7 @@
         <v>4.2290000000000001</v>
       </c>
       <c r="CN13" s="16" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="CO13" s="15">
         <v>0.99286370452024064</v>
@@ -4544,16 +4682,16 @@
     </row>
     <row r="14" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E14" s="12">
         <v>768182</v>
@@ -4817,7 +4955,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="CN14" s="14" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="CO14" s="15">
         <v>1</v>
